--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4127,28 +4127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10658.83813857647</v>
+        <v>10902.66480999546</v>
       </c>
       <c r="AB2" t="n">
-        <v>14583.89257595232</v>
+        <v>14917.50698466137</v>
       </c>
       <c r="AC2" t="n">
-        <v>13192.02633712467</v>
+        <v>13493.80105489727</v>
       </c>
       <c r="AD2" t="n">
-        <v>10658838.13857647</v>
+        <v>10902664.80999546</v>
       </c>
       <c r="AE2" t="n">
-        <v>14583892.57595233</v>
+        <v>14917506.98466137</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.926041713025156e-07</v>
+        <v>7.264205063467006e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.70768229166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>13192026.33712467</v>
+        <v>13493801.05489727</v>
       </c>
     </row>
     <row r="3">
@@ -4233,28 +4233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4951.257642304081</v>
+        <v>5097.5195983222</v>
       </c>
       <c r="AB3" t="n">
-        <v>6774.529140271707</v>
+        <v>6974.651201117805</v>
       </c>
       <c r="AC3" t="n">
-        <v>6127.977587235285</v>
+        <v>6309.000279467298</v>
       </c>
       <c r="AD3" t="n">
-        <v>4951257.642304081</v>
+        <v>5097519.598322201</v>
       </c>
       <c r="AE3" t="n">
-        <v>6774529.140271707</v>
+        <v>6974651.201117804</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.228448101686283e-07</v>
+        <v>1.152425968570473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.39615885416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>6127977.587235285</v>
+        <v>6309000.279467299</v>
       </c>
     </row>
     <row r="4">
@@ -4339,28 +4339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3975.639759959502</v>
+        <v>4109.620774509371</v>
       </c>
       <c r="AB4" t="n">
-        <v>5439.645712424506</v>
+        <v>5622.964447356841</v>
       </c>
       <c r="AC4" t="n">
-        <v>4920.493560221213</v>
+        <v>5086.316612381061</v>
       </c>
       <c r="AD4" t="n">
-        <v>3975639.759959502</v>
+        <v>4109620.77450937</v>
       </c>
       <c r="AE4" t="n">
-        <v>5439645.712424506</v>
+        <v>5622964.447356842</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.121961043271318e-07</v>
+        <v>1.317749256221792e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.33626302083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4920493.560221213</v>
+        <v>5086316.612381061</v>
       </c>
     </row>
     <row r="5">
@@ -4445,28 +4445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3550.603502540658</v>
+        <v>3684.584427581975</v>
       </c>
       <c r="AB5" t="n">
-        <v>4858.092353747731</v>
+        <v>5041.41096621052</v>
       </c>
       <c r="AC5" t="n">
-        <v>4394.442837881306</v>
+        <v>4560.265779259928</v>
       </c>
       <c r="AD5" t="n">
-        <v>3550603.502540658</v>
+        <v>3684584.427581975</v>
       </c>
       <c r="AE5" t="n">
-        <v>4858092.353747731</v>
+        <v>5041410.96621052</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.598127814648922e-07</v>
+        <v>1.405852575659798e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>4394442.837881306</v>
+        <v>4560265.779259929</v>
       </c>
     </row>
     <row r="6">
@@ -4551,28 +4551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3316.16142824667</v>
+        <v>3437.94684218286</v>
       </c>
       <c r="AB6" t="n">
-        <v>4537.318364844323</v>
+        <v>4703.950540985096</v>
       </c>
       <c r="AC6" t="n">
-        <v>4104.28306826973</v>
+        <v>4255.012103389351</v>
       </c>
       <c r="AD6" t="n">
-        <v>3316161.42824667</v>
+        <v>3437946.84218286</v>
       </c>
       <c r="AE6" t="n">
-        <v>4537318.364844323</v>
+        <v>4703950.540985096</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.894098141171867e-07</v>
+        <v>1.460614834996755e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.25130208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4104283.068269731</v>
+        <v>4255012.103389351</v>
       </c>
     </row>
     <row r="7">
@@ -4657,28 +4657,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3137.527670322162</v>
+        <v>3259.398335604373</v>
       </c>
       <c r="AB7" t="n">
-        <v>4292.903776486794</v>
+        <v>4459.652597280217</v>
       </c>
       <c r="AC7" t="n">
-        <v>3883.195065187023</v>
+        <v>4034.029612557357</v>
       </c>
       <c r="AD7" t="n">
-        <v>3137527.670322162</v>
+        <v>3259398.335604373</v>
       </c>
       <c r="AE7" t="n">
-        <v>4292903.776486794</v>
+        <v>4459652.597280217</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.106972697787737e-07</v>
+        <v>1.500002201333746e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.7451171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>3883195.065187023</v>
+        <v>4034029.612557357</v>
       </c>
     </row>
     <row r="8">
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3015.756644046743</v>
+        <v>3125.431798223826</v>
       </c>
       <c r="AB8" t="n">
-        <v>4126.291286178222</v>
+        <v>4276.353670649633</v>
       </c>
       <c r="AC8" t="n">
-        <v>3732.483837111411</v>
+        <v>3868.224478222743</v>
       </c>
       <c r="AD8" t="n">
-        <v>3015756.644046742</v>
+        <v>3125431.798223826</v>
       </c>
       <c r="AE8" t="n">
-        <v>4126291.286178223</v>
+        <v>4276353.670649634</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.251690049873088e-07</v>
+        <v>1.52677870037863e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.41634114583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3732483.837111411</v>
+        <v>3868224.478222743</v>
       </c>
     </row>
     <row r="9">
@@ -4869,28 +4869,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2915.736921148706</v>
+        <v>3025.412075325789</v>
       </c>
       <c r="AB9" t="n">
-        <v>3989.439888750371</v>
+        <v>4139.50227322178</v>
       </c>
       <c r="AC9" t="n">
-        <v>3608.693344981935</v>
+        <v>3744.433986093267</v>
       </c>
       <c r="AD9" t="n">
-        <v>2915736.921148706</v>
+        <v>3025412.075325789</v>
       </c>
       <c r="AE9" t="n">
-        <v>3989439.888750371</v>
+        <v>4139502.273221781</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.362795629861197e-07</v>
+        <v>1.547336141580832e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.17057291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3608693.344981935</v>
+        <v>3744433.986093267</v>
       </c>
     </row>
     <row r="10">
@@ -4975,28 +4975,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2809.649393553943</v>
+        <v>2931.434717981582</v>
       </c>
       <c r="AB10" t="n">
-        <v>3844.286253243806</v>
+        <v>4010.918306915033</v>
       </c>
       <c r="AC10" t="n">
-        <v>3477.392968723716</v>
+        <v>3628.12189306211</v>
       </c>
       <c r="AD10" t="n">
-        <v>2809649.393553943</v>
+        <v>2931434.717981582</v>
       </c>
       <c r="AE10" t="n">
-        <v>3844286.253243806</v>
+        <v>4010918.306915033</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.457095323800682e-07</v>
+        <v>1.564784053861692e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.96712239583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3477392.968723716</v>
+        <v>3628121.893062111</v>
       </c>
     </row>
     <row r="11">
@@ -5081,28 +5081,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2718.075567999471</v>
+        <v>2827.835973522575</v>
       </c>
       <c r="AB11" t="n">
-        <v>3718.990905168112</v>
+        <v>3869.169934292172</v>
       </c>
       <c r="AC11" t="n">
-        <v>3364.055632815245</v>
+        <v>3499.90178617729</v>
       </c>
       <c r="AD11" t="n">
-        <v>2718075.567999471</v>
+        <v>2827835.973522575</v>
       </c>
       <c r="AE11" t="n">
-        <v>3718990.905168112</v>
+        <v>3869169.934292172</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.535522792027583e-07</v>
+        <v>1.579295188827952e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.802734375</v>
       </c>
       <c r="AH11" t="n">
-        <v>3364055.632815245</v>
+        <v>3499901.78617729</v>
       </c>
     </row>
     <row r="12">
@@ -5187,28 +5187,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2638.870369305685</v>
+        <v>2748.630774828789</v>
       </c>
       <c r="AB12" t="n">
-        <v>3610.618858028517</v>
+        <v>3760.797887152577</v>
       </c>
       <c r="AC12" t="n">
-        <v>3266.026461753533</v>
+        <v>3401.872615115578</v>
       </c>
       <c r="AD12" t="n">
-        <v>2638870.369305686</v>
+        <v>2748630.774828789</v>
       </c>
       <c r="AE12" t="n">
-        <v>3610618.858028517</v>
+        <v>3760797.887152576</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.593409732861723e-07</v>
+        <v>1.590005788445906e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3266026.461753533</v>
+        <v>3401872.615115578</v>
       </c>
     </row>
     <row r="13">
@@ -5293,28 +5293,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2588.096053166827</v>
+        <v>2697.856458689932</v>
       </c>
       <c r="AB13" t="n">
-        <v>3541.147198682591</v>
+        <v>3691.32622780665</v>
       </c>
       <c r="AC13" t="n">
-        <v>3203.185080071499</v>
+        <v>3339.031233433543</v>
       </c>
       <c r="AD13" t="n">
-        <v>2588096.053166828</v>
+        <v>2697856.458689931</v>
       </c>
       <c r="AE13" t="n">
-        <v>3541147.198682591</v>
+        <v>3691326.227806651</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.636358108319311e-07</v>
+        <v>1.597952362356001e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.59440104166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>3203185.080071499</v>
+        <v>3339031.233433543</v>
       </c>
     </row>
     <row r="14">
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2578.897077954687</v>
+        <v>2688.657483477791</v>
       </c>
       <c r="AB14" t="n">
-        <v>3528.560754967194</v>
+        <v>3678.739784091254</v>
       </c>
       <c r="AC14" t="n">
-        <v>3191.799868879116</v>
+        <v>3327.646022241161</v>
       </c>
       <c r="AD14" t="n">
-        <v>2578897.077954687</v>
+        <v>2688657.483477791</v>
       </c>
       <c r="AE14" t="n">
-        <v>3528560.754967195</v>
+        <v>3678739.784091255</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.645694711679655e-07</v>
+        <v>1.599679878423412e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.57649739583333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3191799.868879116</v>
+        <v>3327646.022241161</v>
       </c>
     </row>
     <row r="15">
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2591.845582381829</v>
+        <v>2701.605987904933</v>
       </c>
       <c r="AB15" t="n">
-        <v>3546.27746997211</v>
+        <v>3696.45649909617</v>
       </c>
       <c r="AC15" t="n">
-        <v>3207.825725469528</v>
+        <v>3343.671878831572</v>
       </c>
       <c r="AD15" t="n">
-        <v>2591845.582381829</v>
+        <v>2701605.987904933</v>
       </c>
       <c r="AE15" t="n">
-        <v>3546277.46997211</v>
+        <v>3696456.49909617</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.643827391007586e-07</v>
+        <v>1.59933437520993e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.57975260416667</v>
       </c>
       <c r="AH15" t="n">
-        <v>3207825.725469528</v>
+        <v>3343671.878831572</v>
       </c>
     </row>
   </sheetData>
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7306.045203268162</v>
+        <v>7505.942968669784</v>
       </c>
       <c r="AB2" t="n">
-        <v>9996.453367078237</v>
+        <v>10269.96230856776</v>
       </c>
       <c r="AC2" t="n">
-        <v>9042.405887834331</v>
+        <v>9289.811519820294</v>
       </c>
       <c r="AD2" t="n">
-        <v>7306045.203268162</v>
+        <v>7505942.968669784</v>
       </c>
       <c r="AE2" t="n">
-        <v>9996453.367078237</v>
+        <v>10269962.30856776</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.825429340525388e-07</v>
+        <v>9.198013043125915e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.57486979166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>9042405.887834331</v>
+        <v>9289811.519820293</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3934.643634921133</v>
+        <v>4075.722839659169</v>
       </c>
       <c r="AB3" t="n">
-        <v>5383.553005525615</v>
+        <v>5576.583797423454</v>
       </c>
       <c r="AC3" t="n">
-        <v>4869.754262542147</v>
+        <v>5044.362466581665</v>
       </c>
       <c r="AD3" t="n">
-        <v>3934643.634921133</v>
+        <v>4075722.839659169</v>
       </c>
       <c r="AE3" t="n">
-        <v>5383553.005525615</v>
+        <v>5576583.797423454</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.965771898292454e-07</v>
+        <v>1.327783628243077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.568359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>4869754.262542146</v>
+        <v>5044362.466581665</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3263.497919427904</v>
+        <v>3381.049789409056</v>
       </c>
       <c r="AB4" t="n">
-        <v>4465.261828728448</v>
+        <v>4626.10148325916</v>
       </c>
       <c r="AC4" t="n">
-        <v>4039.103506828773</v>
+        <v>4184.592850470943</v>
       </c>
       <c r="AD4" t="n">
-        <v>3263497.919427904</v>
+        <v>3381049.789409056</v>
       </c>
       <c r="AE4" t="n">
-        <v>4465261.828728448</v>
+        <v>4626101.48325916</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.765502781790258e-07</v>
+        <v>1.480224677076308e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.244140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>4039103.506828773</v>
+        <v>4184592.850470942</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2949.683637004002</v>
+        <v>3067.150166130582</v>
       </c>
       <c r="AB5" t="n">
-        <v>4035.887283006995</v>
+        <v>4196.610170415512</v>
       </c>
       <c r="AC5" t="n">
-        <v>3650.707865120033</v>
+        <v>3796.091585730264</v>
       </c>
       <c r="AD5" t="n">
-        <v>2949683.637004002</v>
+        <v>3067150.166130582</v>
       </c>
       <c r="AE5" t="n">
-        <v>4035887.283006995</v>
+        <v>4196610.170415511</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.186617111748039e-07</v>
+        <v>1.560495567524725e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.20247395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3650707.865120033</v>
+        <v>3796091.585730264</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2746.257582251034</v>
+        <v>2863.809362723634</v>
       </c>
       <c r="AB6" t="n">
-        <v>3757.550780369823</v>
+        <v>3918.390312430989</v>
       </c>
       <c r="AC6" t="n">
-        <v>3398.935407646828</v>
+        <v>3544.424640507771</v>
       </c>
       <c r="AD6" t="n">
-        <v>2746257.582251034</v>
+        <v>2863809.362723635</v>
       </c>
       <c r="AE6" t="n">
-        <v>3757550.780369823</v>
+        <v>3918390.312430989</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.451262355804075e-07</v>
+        <v>1.610941035375336e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.60026041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3398935.407646828</v>
+        <v>3544424.640507771</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2602.858395198561</v>
+        <v>2708.646553046995</v>
       </c>
       <c r="AB7" t="n">
-        <v>3561.345686318975</v>
+        <v>3706.089710931353</v>
       </c>
       <c r="AC7" t="n">
-        <v>3221.455852396622</v>
+        <v>3352.385710449502</v>
       </c>
       <c r="AD7" t="n">
-        <v>2602858.395198561</v>
+        <v>2708646.553046995</v>
       </c>
       <c r="AE7" t="n">
-        <v>3561345.686318975</v>
+        <v>3706089.710931353</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.633809622689442e-07</v>
+        <v>1.645737361739443e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.2080078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>3221455.852396621</v>
+        <v>3352385.710449502</v>
       </c>
     </row>
     <row r="8">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2471.753432735891</v>
+        <v>2589.219872353919</v>
       </c>
       <c r="AB8" t="n">
-        <v>3381.962092734806</v>
+        <v>3542.684857673773</v>
       </c>
       <c r="AC8" t="n">
-        <v>3059.192377217677</v>
+        <v>3204.575987046681</v>
       </c>
       <c r="AD8" t="n">
-        <v>2471753.432735891</v>
+        <v>2589219.872353919</v>
       </c>
       <c r="AE8" t="n">
-        <v>3381962.092734806</v>
+        <v>3542684.857673774</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.760337093387766e-07</v>
+        <v>1.669855450383348e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.94596354166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3059192.377217677</v>
+        <v>3204575.987046681</v>
       </c>
     </row>
     <row r="9">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2370.612991796543</v>
+        <v>2476.486400990998</v>
       </c>
       <c r="AB9" t="n">
-        <v>3243.577279440241</v>
+        <v>3388.437948705267</v>
       </c>
       <c r="AC9" t="n">
-        <v>2934.014816279645</v>
+        <v>3065.050186583238</v>
       </c>
       <c r="AD9" t="n">
-        <v>2370612.991796543</v>
+        <v>2476486.400990998</v>
       </c>
       <c r="AE9" t="n">
-        <v>3243577.279440241</v>
+        <v>3388437.948705268</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.855957090327721e-07</v>
+        <v>1.688082097526452e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.75065104166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2934014.816279646</v>
+        <v>3065050.186583238</v>
       </c>
     </row>
     <row r="10">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2324.842781840222</v>
+        <v>2430.716191034678</v>
       </c>
       <c r="AB10" t="n">
-        <v>3180.952458938846</v>
+        <v>3325.813128203873</v>
       </c>
       <c r="AC10" t="n">
-        <v>2877.366820752419</v>
+        <v>3008.402191056012</v>
       </c>
       <c r="AD10" t="n">
-        <v>2324842.781840222</v>
+        <v>2430716.191034677</v>
       </c>
       <c r="AE10" t="n">
-        <v>3180952.458938846</v>
+        <v>3325813.128203874</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.895557291080632e-07</v>
+        <v>1.695630506949354e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.67252604166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2877366.820752419</v>
+        <v>3008402.191056012</v>
       </c>
     </row>
     <row r="11">
@@ -6756,28 +6756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2335.718805601208</v>
+        <v>2441.592214795664</v>
       </c>
       <c r="AB11" t="n">
-        <v>3195.833514464934</v>
+        <v>3340.694183729961</v>
       </c>
       <c r="AC11" t="n">
-        <v>2890.827649224788</v>
+        <v>3021.863019528381</v>
       </c>
       <c r="AD11" t="n">
-        <v>2335718.805601208</v>
+        <v>2441592.214795664</v>
       </c>
       <c r="AE11" t="n">
-        <v>3195833.514464933</v>
+        <v>3340694.183729961</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.894591432525682e-07</v>
+        <v>1.695446399402453e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.67415364583333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2890827.649224788</v>
+        <v>3021863.019528382</v>
       </c>
     </row>
   </sheetData>
@@ -7053,28 +7053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2778.023683750429</v>
+        <v>2903.499652790148</v>
       </c>
       <c r="AB2" t="n">
-        <v>3801.014561862788</v>
+        <v>3972.696318312011</v>
       </c>
       <c r="AC2" t="n">
-        <v>3438.251066835904</v>
+        <v>3593.547757406465</v>
       </c>
       <c r="AD2" t="n">
-        <v>2778023.683750429</v>
+        <v>2903499.652790148</v>
       </c>
       <c r="AE2" t="n">
-        <v>3801014.561862788</v>
+        <v>3972696.318312012</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.701654689926354e-07</v>
+        <v>1.640250894391206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.77506510416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3438251.066835904</v>
+        <v>3593547.757406465</v>
       </c>
     </row>
     <row r="3">
@@ -7159,28 +7159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1930.719059414242</v>
+        <v>2024.890131343511</v>
       </c>
       <c r="AB3" t="n">
-        <v>2641.694994403954</v>
+        <v>2770.544009552061</v>
       </c>
       <c r="AC3" t="n">
-        <v>2389.575331780251</v>
+        <v>2506.127177763351</v>
       </c>
       <c r="AD3" t="n">
-        <v>1930719.059414242</v>
+        <v>2024890.131343511</v>
       </c>
       <c r="AE3" t="n">
-        <v>2641694.994403954</v>
+        <v>2770544.009552061</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.227759229659872e-07</v>
+        <v>1.96527122275084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2389575.331780251</v>
+        <v>2506127.177763351</v>
       </c>
     </row>
     <row r="4">
@@ -7265,28 +7265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1750.024134646628</v>
+        <v>1844.109865721325</v>
       </c>
       <c r="AB4" t="n">
-        <v>2394.460226639438</v>
+        <v>2523.192474665347</v>
       </c>
       <c r="AC4" t="n">
-        <v>2165.936303255004</v>
+        <v>2282.382526206165</v>
       </c>
       <c r="AD4" t="n">
-        <v>1750024.134646628</v>
+        <v>1844109.865721325</v>
       </c>
       <c r="AE4" t="n">
-        <v>2394460.226639437</v>
+        <v>2523192.474665347</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.552164220097574e-07</v>
+        <v>2.034360995940282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.3642578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2165936.303255004</v>
+        <v>2282382.526206165</v>
       </c>
     </row>
     <row r="5">
@@ -7371,28 +7371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1762.166310965616</v>
+        <v>1856.252042040313</v>
       </c>
       <c r="AB5" t="n">
-        <v>2411.07368795409</v>
+        <v>2539.80593598</v>
       </c>
       <c r="AC5" t="n">
-        <v>2180.964199138926</v>
+        <v>2297.410422090087</v>
       </c>
       <c r="AD5" t="n">
-        <v>1762166.310965616</v>
+        <v>1856252.042040313</v>
       </c>
       <c r="AE5" t="n">
-        <v>2411073.68795409</v>
+        <v>2539805.93598</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.557553007314149e-07</v>
+        <v>2.035508666591269e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.35286458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2180964.199138926</v>
+        <v>2297410.422090087</v>
       </c>
     </row>
   </sheetData>
@@ -7668,28 +7668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4012.589626633596</v>
+        <v>4155.2229752342</v>
       </c>
       <c r="AB2" t="n">
-        <v>5490.202150121072</v>
+        <v>5685.359390215665</v>
       </c>
       <c r="AC2" t="n">
-        <v>4966.224962460424</v>
+        <v>5142.756669465288</v>
       </c>
       <c r="AD2" t="n">
-        <v>4012589.626633596</v>
+        <v>4155222.9752342</v>
       </c>
       <c r="AE2" t="n">
-        <v>5490202.150121072</v>
+        <v>5685359.390215665</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.542052516703994e-07</v>
+        <v>1.328262840360026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.65104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4966224.962460424</v>
+        <v>5142756.669465288</v>
       </c>
     </row>
     <row r="3">
@@ -7774,28 +7774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2604.038767760213</v>
+        <v>2713.671476876196</v>
       </c>
       <c r="AB3" t="n">
-        <v>3562.960724132191</v>
+        <v>3712.965033398459</v>
       </c>
       <c r="AC3" t="n">
-        <v>3222.916753267663</v>
+        <v>3358.604861789924</v>
       </c>
       <c r="AD3" t="n">
-        <v>2604038.767760213</v>
+        <v>2713671.476876196</v>
       </c>
       <c r="AE3" t="n">
-        <v>3562960.72413219</v>
+        <v>3712965.033398459</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.319593657570452e-07</v>
+        <v>1.689165147181253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.1708984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3222916.753267663</v>
+        <v>3358604.861789924</v>
       </c>
     </row>
     <row r="4">
@@ -7880,28 +7880,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2213.622343391859</v>
+        <v>2323.25496299929</v>
       </c>
       <c r="AB4" t="n">
-        <v>3028.775748354339</v>
+        <v>3178.77993515106</v>
       </c>
       <c r="AC4" t="n">
-        <v>2739.713641844748</v>
+        <v>2875.401639585783</v>
       </c>
       <c r="AD4" t="n">
-        <v>2213622.343391859</v>
+        <v>2323254.96299929</v>
       </c>
       <c r="AE4" t="n">
-        <v>3028775.748354339</v>
+        <v>3178779.93515106</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.953693310489752e-07</v>
+        <v>1.817909299556575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.74348958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2739713.641844748</v>
+        <v>2875401.639585782</v>
       </c>
     </row>
     <row r="5">
@@ -7986,28 +7986,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2003.576829448421</v>
+        <v>2102.237742518204</v>
       </c>
       <c r="AB5" t="n">
-        <v>2741.382209622681</v>
+        <v>2876.37442349705</v>
       </c>
       <c r="AC5" t="n">
-        <v>2479.748539090387</v>
+        <v>2601.857285535349</v>
       </c>
       <c r="AD5" t="n">
-        <v>2003576.829448421</v>
+        <v>2102237.742518203</v>
       </c>
       <c r="AE5" t="n">
-        <v>2741382.209622681</v>
+        <v>2876374.42349705</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.276413946853561e-07</v>
+        <v>1.883432746212633e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.0908203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2479748.539090387</v>
+        <v>2601857.285535349</v>
       </c>
     </row>
     <row r="6">
@@ -8092,28 +8092,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1952.778602917523</v>
+        <v>2062.325881670383</v>
       </c>
       <c r="AB6" t="n">
-        <v>2671.877835023517</v>
+        <v>2821.765254698031</v>
       </c>
       <c r="AC6" t="n">
-        <v>2416.877564452966</v>
+        <v>2552.459939162059</v>
       </c>
       <c r="AD6" t="n">
-        <v>1952778.602917523</v>
+        <v>2062325.881670383</v>
       </c>
       <c r="AE6" t="n">
-        <v>2671877.835023517</v>
+        <v>2821765.254698031</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.335184158587542e-07</v>
+        <v>1.895365131066931e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.97688802083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2416877.564452966</v>
+        <v>2552459.939162059</v>
       </c>
     </row>
     <row r="7">
@@ -8198,28 +8198,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1964.868200181763</v>
+        <v>2074.415478934623</v>
       </c>
       <c r="AB7" t="n">
-        <v>2688.41935535584</v>
+        <v>2838.306775030353</v>
       </c>
       <c r="AC7" t="n">
-        <v>2431.840385300941</v>
+        <v>2567.422760010034</v>
       </c>
       <c r="AD7" t="n">
-        <v>1964868.200181763</v>
+        <v>2074415.478934623</v>
       </c>
       <c r="AE7" t="n">
-        <v>2688419.35535584</v>
+        <v>2838306.775030354</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.334153102241333e-07</v>
+        <v>1.895155790981768e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.98014322916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2431840.385300941</v>
+        <v>2567422.760010034</v>
       </c>
     </row>
   </sheetData>
@@ -8495,28 +8495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2011.20679495082</v>
+        <v>2121.632825363177</v>
       </c>
       <c r="AB2" t="n">
-        <v>2751.821865033384</v>
+        <v>2902.911631496208</v>
       </c>
       <c r="AC2" t="n">
-        <v>2489.191848440842</v>
+        <v>2625.861819648273</v>
       </c>
       <c r="AD2" t="n">
-        <v>2011206.79495082</v>
+        <v>2121632.825363177</v>
       </c>
       <c r="AE2" t="n">
-        <v>2751821.865033384</v>
+        <v>2902911.631496208</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.709598468474881e-07</v>
+        <v>1.939457459532432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.91634114583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2489191.848440842</v>
+        <v>2625861.819648273</v>
       </c>
     </row>
     <row r="3">
@@ -8601,28 +8601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1589.340390325406</v>
+        <v>1689.719932440769</v>
       </c>
       <c r="AB3" t="n">
-        <v>2174.605638792649</v>
+        <v>2311.949356747745</v>
       </c>
       <c r="AC3" t="n">
-        <v>1967.064328704461</v>
+        <v>2091.300154981041</v>
       </c>
       <c r="AD3" t="n">
-        <v>1589340.390325406</v>
+        <v>1689719.932440769</v>
       </c>
       <c r="AE3" t="n">
-        <v>2174605.638792649</v>
+        <v>2311949.356747745</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.650964913917288e-07</v>
+        <v>2.149081379782628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.87858072916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1967064.328704461</v>
+        <v>2091300.154981041</v>
       </c>
     </row>
     <row r="4">
@@ -8707,28 +8707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1605.263056600186</v>
+        <v>1705.64259871555</v>
       </c>
       <c r="AB4" t="n">
-        <v>2196.391733248264</v>
+        <v>2333.735451203359</v>
       </c>
       <c r="AC4" t="n">
-        <v>1986.771188882208</v>
+        <v>2111.007015158787</v>
       </c>
       <c r="AD4" t="n">
-        <v>1605263.056600187</v>
+        <v>1705642.59871555</v>
       </c>
       <c r="AE4" t="n">
-        <v>2196391.733248264</v>
+        <v>2333735.451203359</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.649845572127224e-07</v>
+        <v>2.148832124229417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.87858072916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1986771.188882207</v>
+        <v>2111007.015158787</v>
       </c>
     </row>
   </sheetData>
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8033.467508249981</v>
+        <v>8247.08697243749</v>
       </c>
       <c r="AB2" t="n">
-        <v>10991.7446563616</v>
+        <v>11284.0282314886</v>
       </c>
       <c r="AC2" t="n">
-        <v>9942.707973368551</v>
+        <v>10207.09641430799</v>
       </c>
       <c r="AD2" t="n">
-        <v>8033467.50824998</v>
+        <v>8247086.97243749</v>
       </c>
       <c r="AE2" t="n">
-        <v>10991744.6563616</v>
+        <v>11284028.2314886</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.583946115394052e-07</v>
+        <v>8.66715877391182e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.98600260416666</v>
       </c>
       <c r="AH2" t="n">
-        <v>9942707.973368552</v>
+        <v>10207096.41430799</v>
       </c>
     </row>
     <row r="3">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4185.122251451852</v>
+        <v>4315.771874563912</v>
       </c>
       <c r="AB3" t="n">
-        <v>5726.26889899963</v>
+        <v>5905.029477196142</v>
       </c>
       <c r="AC3" t="n">
-        <v>5179.761832147766</v>
+        <v>5341.461751653243</v>
       </c>
       <c r="AD3" t="n">
-        <v>4185122.251451852</v>
+        <v>4315771.874563912</v>
       </c>
       <c r="AE3" t="n">
-        <v>5726268.89899963</v>
+        <v>5905029.477196142</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.769193344762319e-07</v>
+        <v>1.279894484216003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.01432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5179761.832147766</v>
+        <v>5341461.751653243</v>
       </c>
     </row>
     <row r="4">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3433.463875435944</v>
+        <v>3564.028068184883</v>
       </c>
       <c r="AB4" t="n">
-        <v>4697.816748107432</v>
+        <v>4876.460436712196</v>
       </c>
       <c r="AC4" t="n">
-        <v>4249.463711095097</v>
+        <v>4411.05789678741</v>
       </c>
       <c r="AD4" t="n">
-        <v>3433463.875435944</v>
+        <v>3564028.068184882</v>
       </c>
       <c r="AE4" t="n">
-        <v>4697816.748107431</v>
+        <v>4876460.436712196</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.59619886652061e-07</v>
+        <v>1.436261683645108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.50944010416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4249463.711095097</v>
+        <v>4411057.89678741</v>
       </c>
     </row>
     <row r="5">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3101.587408014704</v>
+        <v>3220.189119090031</v>
       </c>
       <c r="AB5" t="n">
-        <v>4243.728724025259</v>
+        <v>4406.004817456742</v>
       </c>
       <c r="AC5" t="n">
-        <v>3838.7132107148</v>
+        <v>3985.501901545103</v>
       </c>
       <c r="AD5" t="n">
-        <v>3101587.408014704</v>
+        <v>3220189.11909003</v>
       </c>
       <c r="AE5" t="n">
-        <v>4243728.724025259</v>
+        <v>4406004.817456742</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.028845273736753e-07</v>
+        <v>1.518064894457556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.40266927083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3838713.210714799</v>
+        <v>3985501.901545104</v>
       </c>
     </row>
     <row r="6">
@@ -9428,28 +9428,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2891.871229299384</v>
+        <v>3010.558191720731</v>
       </c>
       <c r="AB6" t="n">
-        <v>3956.785796282111</v>
+        <v>4119.178534366243</v>
       </c>
       <c r="AC6" t="n">
-        <v>3579.15571326854</v>
+        <v>3726.049916349556</v>
       </c>
       <c r="AD6" t="n">
-        <v>2891871.229299384</v>
+        <v>3010558.191720731</v>
       </c>
       <c r="AE6" t="n">
-        <v>3956785.796282111</v>
+        <v>4119178.534366244</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.298770687088419e-07</v>
+        <v>1.569101410937889e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.77278645833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3579155.71326854</v>
+        <v>3726049.916349556</v>
       </c>
     </row>
     <row r="7">
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2741.237741655579</v>
+        <v>2848.047563257885</v>
       </c>
       <c r="AB7" t="n">
-        <v>3750.682413007385</v>
+        <v>3896.824323040433</v>
       </c>
       <c r="AC7" t="n">
-        <v>3392.722547625646</v>
+        <v>3524.916878876594</v>
       </c>
       <c r="AD7" t="n">
-        <v>2741237.741655579</v>
+        <v>2848047.563257885</v>
       </c>
       <c r="AE7" t="n">
-        <v>3750682.413007385</v>
+        <v>3896824.323040433</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.491164332775244e-07</v>
+        <v>1.605478502471743e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.34798177083333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3392722.547625646</v>
+        <v>3524916.878876594</v>
       </c>
     </row>
     <row r="8">
@@ -9640,28 +9640,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2623.186707610807</v>
+        <v>2729.996529213113</v>
       </c>
       <c r="AB8" t="n">
-        <v>3589.159780183261</v>
+        <v>3735.30169021631</v>
       </c>
       <c r="AC8" t="n">
-        <v>3246.615408179824</v>
+        <v>3378.809739430772</v>
       </c>
       <c r="AD8" t="n">
-        <v>2623186.707610807</v>
+        <v>2729996.529213113</v>
       </c>
       <c r="AE8" t="n">
-        <v>3589159.780183261</v>
+        <v>3735301.69021631</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.624212674817377e-07</v>
+        <v>1.63063479960212e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.06315104166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3246615.408179825</v>
+        <v>3378809.739430773</v>
       </c>
     </row>
     <row r="9">
@@ -9746,28 +9746,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2501.044657287535</v>
+        <v>2619.64627885431</v>
       </c>
       <c r="AB9" t="n">
-        <v>3422.039638403994</v>
+        <v>3584.31560936593</v>
       </c>
       <c r="AC9" t="n">
-        <v>3095.444978177386</v>
+        <v>3242.233558226462</v>
       </c>
       <c r="AD9" t="n">
-        <v>2501044.657287535</v>
+        <v>2619646.278854311</v>
       </c>
       <c r="AE9" t="n">
-        <v>3422039.638403994</v>
+        <v>3584315.609365929</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.732374276621412e-07</v>
+        <v>1.651085602305232e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.84016927083333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3095444.978177385</v>
+        <v>3242233.558226462</v>
       </c>
     </row>
     <row r="10">
@@ -9852,28 +9852,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2418.121239840692</v>
+        <v>2525.016312789019</v>
       </c>
       <c r="AB10" t="n">
-        <v>3308.58016033023</v>
+        <v>3454.838715015928</v>
       </c>
       <c r="AC10" t="n">
-        <v>2992.813913449609</v>
+        <v>3125.113756951268</v>
       </c>
       <c r="AD10" t="n">
-        <v>2418121.239840692</v>
+        <v>2525016.312789019</v>
       </c>
       <c r="AE10" t="n">
-        <v>3308580.16033023</v>
+        <v>3454838.715015928</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.804162950385152e-07</v>
+        <v>1.664659143922341e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.6953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2992813.913449609</v>
+        <v>3125113.756951268</v>
       </c>
     </row>
     <row r="11">
@@ -9958,28 +9958,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2389.624337699021</v>
+        <v>2496.519410647349</v>
       </c>
       <c r="AB11" t="n">
-        <v>3269.5894416254</v>
+        <v>3415.847996311099</v>
       </c>
       <c r="AC11" t="n">
-        <v>2957.544414214152</v>
+        <v>3089.844257715812</v>
       </c>
       <c r="AD11" t="n">
-        <v>2389624.337699022</v>
+        <v>2496519.410647349</v>
       </c>
       <c r="AE11" t="n">
-        <v>3269589.4416254</v>
+        <v>3415847.996311098</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.828092508306399e-07</v>
+        <v>1.669183657794711e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.64811197916667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2957544.414214152</v>
+        <v>3089844.257715811</v>
       </c>
     </row>
     <row r="12">
@@ -10064,28 +10064,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2402.429212621607</v>
+        <v>2509.324285569934</v>
       </c>
       <c r="AB12" t="n">
-        <v>3287.109636405696</v>
+        <v>3433.368191091393</v>
       </c>
       <c r="AC12" t="n">
-        <v>2973.392506194362</v>
+        <v>3105.692349696022</v>
       </c>
       <c r="AD12" t="n">
-        <v>2402429.212621607</v>
+        <v>2509324.285569934</v>
       </c>
       <c r="AE12" t="n">
-        <v>3287109.636405696</v>
+        <v>3433368.191091393</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.82713532598955e-07</v>
+        <v>1.669002677239817e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.64811197916667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2973392.506194362</v>
+        <v>3105692.349696022</v>
       </c>
     </row>
   </sheetData>
@@ -10361,28 +10361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1616.538015396806</v>
+        <v>1724.162812520449</v>
       </c>
       <c r="AB2" t="n">
-        <v>2211.818629289874</v>
+        <v>2359.07562478539</v>
       </c>
       <c r="AC2" t="n">
-        <v>2000.725763617391</v>
+        <v>2133.928758139306</v>
       </c>
       <c r="AD2" t="n">
-        <v>1616538.015396806</v>
+        <v>1724162.812520449</v>
       </c>
       <c r="AE2" t="n">
-        <v>2211818.629289874</v>
+        <v>2359075.62478539</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.34510340917679e-07</v>
+        <v>2.142427333422269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.94954427083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2000725.763617391</v>
+        <v>2133928.758139306</v>
       </c>
     </row>
     <row r="3">
@@ -10467,28 +10467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1516.162247973937</v>
+        <v>1613.987545621332</v>
       </c>
       <c r="AB3" t="n">
-        <v>2074.480076035577</v>
+        <v>2208.328964024286</v>
       </c>
       <c r="AC3" t="n">
-        <v>1876.494609129814</v>
+        <v>1997.569147106975</v>
       </c>
       <c r="AD3" t="n">
-        <v>1516162.247973937</v>
+        <v>1613987.545621332</v>
       </c>
       <c r="AE3" t="n">
-        <v>2074480.076035578</v>
+        <v>2208328.964024286</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.644082569485093e-07</v>
+        <v>2.210970301554557e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.33268229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1876494.609129814</v>
+        <v>1997569.147106975</v>
       </c>
     </row>
   </sheetData>
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5473.546390857807</v>
+        <v>5644.39041000309</v>
       </c>
       <c r="AB2" t="n">
-        <v>7489.147647796333</v>
+        <v>7722.903971897107</v>
       </c>
       <c r="AC2" t="n">
-        <v>6774.393907375108</v>
+        <v>6985.840855982758</v>
       </c>
       <c r="AD2" t="n">
-        <v>5473546.390857806</v>
+        <v>5644390.410003089</v>
       </c>
       <c r="AE2" t="n">
-        <v>7489147.647796334</v>
+        <v>7722903.971897108</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.61255352863377e-07</v>
+        <v>1.100052735100184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.85904947916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6774393.907375108</v>
+        <v>6985840.855982757</v>
       </c>
     </row>
     <row r="3">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3254.635079620988</v>
+        <v>3379.812684753623</v>
       </c>
       <c r="AB3" t="n">
-        <v>4453.135300303727</v>
+        <v>4624.408822092391</v>
       </c>
       <c r="AC3" t="n">
-        <v>4028.134317257219</v>
+        <v>4183.061734510265</v>
       </c>
       <c r="AD3" t="n">
-        <v>3254635.079620988</v>
+        <v>3379812.684753623</v>
       </c>
       <c r="AE3" t="n">
-        <v>4453135.300303726</v>
+        <v>4624408.822092392</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.591874267721108e-07</v>
+        <v>1.487996864553068e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.33463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4028134.317257219</v>
+        <v>4183061.734510264</v>
       </c>
     </row>
     <row r="4">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2742.386664497555</v>
+        <v>2856.168978963532</v>
       </c>
       <c r="AB4" t="n">
-        <v>3752.254419926674</v>
+        <v>3907.936402300475</v>
       </c>
       <c r="AC4" t="n">
-        <v>3394.144524410885</v>
+        <v>3534.968436887958</v>
       </c>
       <c r="AD4" t="n">
-        <v>2742386.664497555</v>
+        <v>2856168.978963532</v>
       </c>
       <c r="AE4" t="n">
-        <v>3752254.419926675</v>
+        <v>3907936.402300475</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.316331531700785e-07</v>
+        <v>1.629989487097914e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.47591145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3394144.524410885</v>
+        <v>3534968.436887958</v>
       </c>
     </row>
     <row r="5">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2489.129061811884</v>
+        <v>2602.996627623882</v>
       </c>
       <c r="AB5" t="n">
-        <v>3405.736194995236</v>
+        <v>3561.534822021686</v>
       </c>
       <c r="AC5" t="n">
-        <v>3080.697512525533</v>
+        <v>3221.626937253318</v>
       </c>
       <c r="AD5" t="n">
-        <v>2489129.061811884</v>
+        <v>2602996.627623883</v>
       </c>
       <c r="AE5" t="n">
-        <v>3405736.194995236</v>
+        <v>3561534.822021686</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.686521232525566e-07</v>
+        <v>1.702546156859841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.6474609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>3080697.512525533</v>
+        <v>3221626.937253318</v>
       </c>
     </row>
     <row r="6">
@@ -11188,28 +11188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2310.393795864128</v>
+        <v>2412.86616051802</v>
       </c>
       <c r="AB6" t="n">
-        <v>3161.18271888208</v>
+        <v>3301.389928963214</v>
       </c>
       <c r="AC6" t="n">
-        <v>2859.483876939667</v>
+        <v>2986.309907672706</v>
       </c>
       <c r="AD6" t="n">
-        <v>2310393.795864128</v>
+        <v>2412866.16051802</v>
       </c>
       <c r="AE6" t="n">
-        <v>3161182.71888208</v>
+        <v>3301389.928963214</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.92634843117818e-07</v>
+        <v>1.749551956356143e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.14453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2859483.876939667</v>
+        <v>2986309.907672706</v>
       </c>
     </row>
     <row r="7">
@@ -11294,28 +11294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2171.133660237495</v>
+        <v>2284.915885194925</v>
       </c>
       <c r="AB7" t="n">
-        <v>2970.640857593959</v>
+        <v>3126.322717498384</v>
       </c>
       <c r="AC7" t="n">
-        <v>2687.127063465821</v>
+        <v>2827.950865161712</v>
       </c>
       <c r="AD7" t="n">
-        <v>2171133.660237495</v>
+        <v>2284915.885194925</v>
       </c>
       <c r="AE7" t="n">
-        <v>2970640.85759396</v>
+        <v>3126322.717498384</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.074623338228965e-07</v>
+        <v>1.778613633223152e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.84830729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2687127.063465821</v>
+        <v>2827950.865161712</v>
       </c>
     </row>
     <row r="8">
@@ -11400,28 +11400,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2144.487363487386</v>
+        <v>2247.044979487302</v>
       </c>
       <c r="AB8" t="n">
-        <v>2934.182218828813</v>
+        <v>3074.506073562767</v>
       </c>
       <c r="AC8" t="n">
-        <v>2654.147986014399</v>
+        <v>2781.079528998196</v>
       </c>
       <c r="AD8" t="n">
-        <v>2144487.363487386</v>
+        <v>2247044.979487302</v>
       </c>
       <c r="AE8" t="n">
-        <v>2934182.218828813</v>
+        <v>3074506.073562767</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.105472479964363e-07</v>
+        <v>1.784660022369979e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.7880859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>2654147.986014399</v>
+        <v>2781079.528998196</v>
       </c>
     </row>
     <row r="9">
@@ -11506,28 +11506,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2152.450680095266</v>
+        <v>2255.008296095182</v>
       </c>
       <c r="AB9" t="n">
-        <v>2945.077979928448</v>
+        <v>3085.401834662403</v>
       </c>
       <c r="AC9" t="n">
-        <v>2664.003870966983</v>
+        <v>2790.93541395078</v>
       </c>
       <c r="AD9" t="n">
-        <v>2152450.680095266</v>
+        <v>2255008.296095182</v>
       </c>
       <c r="AE9" t="n">
-        <v>2945077.979928448</v>
+        <v>3085401.834662403</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.110448147986201e-07</v>
+        <v>1.785635246425919e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.7783203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2664003.870966983</v>
+        <v>2790935.413950779</v>
       </c>
     </row>
   </sheetData>
@@ -11803,28 +11803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6656.828542649549</v>
+        <v>6842.991986705029</v>
       </c>
       <c r="AB2" t="n">
-        <v>9108.166490602143</v>
+        <v>9362.883527710379</v>
       </c>
       <c r="AC2" t="n">
-        <v>8238.895864130687</v>
+        <v>8469.30306471491</v>
       </c>
       <c r="AD2" t="n">
-        <v>6656828.542649549</v>
+        <v>6842991.986705029</v>
       </c>
       <c r="AE2" t="n">
-        <v>9108166.490602143</v>
+        <v>9362883.527710378</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.072119962511438e-07</v>
+        <v>9.752180680328771e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.28580729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8238895.864130687</v>
+        <v>8469303.06471491</v>
       </c>
     </row>
     <row r="3">
@@ -11909,28 +11909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3701.218586842994</v>
+        <v>3829.237985423023</v>
       </c>
       <c r="AB3" t="n">
-        <v>5064.170556758761</v>
+        <v>5239.332345713229</v>
       </c>
       <c r="AC3" t="n">
-        <v>4580.85322642953</v>
+        <v>4739.297820087293</v>
       </c>
       <c r="AD3" t="n">
-        <v>3701218.586842994</v>
+        <v>3829237.985423023</v>
       </c>
       <c r="AE3" t="n">
-        <v>5064170.55675876</v>
+        <v>5239332.345713229</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.171365306472824e-07</v>
+        <v>1.378840617143755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.12890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>4580853.22642953</v>
+        <v>4739297.820087293</v>
       </c>
     </row>
     <row r="4">
@@ -12015,28 +12015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3080.502771610789</v>
+        <v>3208.436739827697</v>
       </c>
       <c r="AB4" t="n">
-        <v>4214.879794308911</v>
+        <v>4389.924693671634</v>
       </c>
       <c r="AC4" t="n">
-        <v>3812.617582360854</v>
+        <v>3970.956442205452</v>
       </c>
       <c r="AD4" t="n">
-        <v>3080502.771610789</v>
+        <v>3208436.739827697</v>
       </c>
       <c r="AE4" t="n">
-        <v>4214879.794308911</v>
+        <v>4389924.693671634</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.940666085100567e-07</v>
+        <v>1.526754314890379e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.9853515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3812617.582360854</v>
+        <v>3970956.442205452</v>
       </c>
     </row>
     <row r="5">
@@ -12121,28 +12121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2799.927181384743</v>
+        <v>2904.740166287335</v>
       </c>
       <c r="AB5" t="n">
-        <v>3830.983893640176</v>
+        <v>3974.393643606457</v>
       </c>
       <c r="AC5" t="n">
-        <v>3465.360167650677</v>
+        <v>3595.083092357019</v>
       </c>
       <c r="AD5" t="n">
-        <v>2799927.181384743</v>
+        <v>2904740.166287336</v>
       </c>
       <c r="AE5" t="n">
-        <v>3830983.893640175</v>
+        <v>3974393.643606457</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.346279676873877e-07</v>
+        <v>1.604741765159828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.013671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3465360.167650677</v>
+        <v>3595083.092357019</v>
       </c>
     </row>
     <row r="6">
@@ -12227,28 +12227,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2610.365785527951</v>
+        <v>2715.093429575971</v>
       </c>
       <c r="AB6" t="n">
-        <v>3571.617628970333</v>
+        <v>3714.910611814417</v>
       </c>
       <c r="AC6" t="n">
-        <v>3230.747455258095</v>
+        <v>3360.364756932499</v>
       </c>
       <c r="AD6" t="n">
-        <v>2610365.785527951</v>
+        <v>2715093.429575971</v>
       </c>
       <c r="AE6" t="n">
-        <v>3571617.628970333</v>
+        <v>3714910.611814417</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.595888041042069e-07</v>
+        <v>1.652734042248721e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.4619140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3230747.455258095</v>
+        <v>3360364.756932499</v>
       </c>
     </row>
     <row r="7">
@@ -12333,28 +12333,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2463.384732515608</v>
+        <v>2568.112376563628</v>
       </c>
       <c r="AB7" t="n">
-        <v>3370.511667892417</v>
+        <v>3513.804650736502</v>
       </c>
       <c r="AC7" t="n">
-        <v>3048.834764851474</v>
+        <v>3178.452066525878</v>
       </c>
       <c r="AD7" t="n">
-        <v>2463384.732515607</v>
+        <v>2568112.376563628</v>
       </c>
       <c r="AE7" t="n">
-        <v>3370511.667892417</v>
+        <v>3513804.650736501</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.775294052787956e-07</v>
+        <v>1.687228491406362e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.08430989583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3048834.764851474</v>
+        <v>3178452.066525878</v>
       </c>
     </row>
     <row r="8">
@@ -12439,28 +12439,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2332.290978969578</v>
+        <v>2448.579069920481</v>
       </c>
       <c r="AB8" t="n">
-        <v>3191.143410842498</v>
+        <v>3350.253907150029</v>
       </c>
       <c r="AC8" t="n">
-        <v>2886.585162509476</v>
+        <v>3030.510376362395</v>
       </c>
       <c r="AD8" t="n">
-        <v>2332290.978969578</v>
+        <v>2448579.069920481</v>
       </c>
       <c r="AE8" t="n">
-        <v>3191143.410842498</v>
+        <v>3350253.907150029</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.903023332889646e-07</v>
+        <v>1.711787039447943e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.82552083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2886585.162509476</v>
+        <v>3030510.376362395</v>
       </c>
     </row>
     <row r="9">
@@ -12545,28 +12545,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2270.70671927608</v>
+        <v>2375.519614670121</v>
       </c>
       <c r="AB9" t="n">
-        <v>3106.881109824061</v>
+        <v>3250.290737320795</v>
       </c>
       <c r="AC9" t="n">
-        <v>2810.36473723736</v>
+        <v>2940.087551162476</v>
       </c>
       <c r="AD9" t="n">
-        <v>2270706.719276079</v>
+        <v>2375519.614670121</v>
       </c>
       <c r="AE9" t="n">
-        <v>3106881.109824061</v>
+        <v>3250290.737320795</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.956650129878906e-07</v>
+        <v>1.72209788022876e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.71809895833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2810364.73723736</v>
+        <v>2940087.551162476</v>
       </c>
     </row>
     <row r="10">
@@ -12651,28 +12651,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2270.25685778375</v>
+        <v>2375.069753177791</v>
       </c>
       <c r="AB10" t="n">
-        <v>3106.265589483767</v>
+        <v>3249.675216980499</v>
       </c>
       <c r="AC10" t="n">
-        <v>2809.807961294454</v>
+        <v>2939.530775219571</v>
       </c>
       <c r="AD10" t="n">
-        <v>2270256.85778375</v>
+        <v>2375069.75317779</v>
       </c>
       <c r="AE10" t="n">
-        <v>3106265.589483767</v>
+        <v>3249675.2169805</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.966400456604225e-07</v>
+        <v>1.723972578552545e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.69856770833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2809807.961294455</v>
+        <v>2939530.775219571</v>
       </c>
     </row>
   </sheetData>
@@ -12948,28 +12948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9695.082151505922</v>
+        <v>9924.675812653351</v>
       </c>
       <c r="AB2" t="n">
-        <v>13265.23911652895</v>
+        <v>13579.37929266834</v>
       </c>
       <c r="AC2" t="n">
-        <v>11999.22331312695</v>
+        <v>12283.3823917541</v>
       </c>
       <c r="AD2" t="n">
-        <v>9695082.151505921</v>
+        <v>9924675.812653352</v>
       </c>
       <c r="AE2" t="n">
-        <v>13265239.11652895</v>
+        <v>13579379.29266834</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.139063573007965e-07</v>
+        <v>7.710761503342142e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.00846354166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>11999223.31312696</v>
+        <v>12283382.3917541</v>
       </c>
     </row>
     <row r="3">
@@ -13054,28 +13054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4676.636693595406</v>
+        <v>4833.673132598066</v>
       </c>
       <c r="AB3" t="n">
-        <v>6398.780642827281</v>
+        <v>6613.644826629471</v>
       </c>
       <c r="AC3" t="n">
-        <v>5788.08999902064</v>
+        <v>5982.447846684518</v>
       </c>
       <c r="AD3" t="n">
-        <v>4676636.693595406</v>
+        <v>4833673.132598067</v>
       </c>
       <c r="AE3" t="n">
-        <v>6398780.642827281</v>
+        <v>6613644.826629471</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.4052902860146e-07</v>
+        <v>1.193256998448081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.91438802083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>5788089.99902064</v>
+        <v>5982447.846684518</v>
       </c>
     </row>
     <row r="4">
@@ -13160,28 +13160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3797.216651647912</v>
+        <v>3918.145295550158</v>
       </c>
       <c r="AB4" t="n">
-        <v>5195.519344160575</v>
+        <v>5360.979249742883</v>
       </c>
       <c r="AC4" t="n">
-        <v>4699.666269910892</v>
+        <v>4849.334914328853</v>
       </c>
       <c r="AD4" t="n">
-        <v>3797216.651647912</v>
+        <v>3918145.295550158</v>
       </c>
       <c r="AE4" t="n">
-        <v>5195519.344160575</v>
+        <v>5360979.249742882</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.273006660346876e-07</v>
+        <v>1.35490597766776e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.0595703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>4699666.269910892</v>
+        <v>4849334.914328854</v>
       </c>
     </row>
     <row r="5">
@@ -13266,28 +13266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3398.305483069631</v>
+        <v>3519.234037463326</v>
       </c>
       <c r="AB5" t="n">
-        <v>4649.711484593036</v>
+        <v>4815.171267705797</v>
       </c>
       <c r="AC5" t="n">
-        <v>4205.949546414357</v>
+        <v>4355.618080051091</v>
       </c>
       <c r="AD5" t="n">
-        <v>3398305.48306963</v>
+        <v>3519234.037463326</v>
       </c>
       <c r="AE5" t="n">
-        <v>4649711.484593037</v>
+        <v>4815171.267705796</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.737921941171327e-07</v>
+        <v>1.441516168269193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.79654947916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4205949.546414357</v>
+        <v>4355618.080051091</v>
       </c>
     </row>
     <row r="6">
@@ -13372,28 +13372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3175.862658230365</v>
+        <v>3284.698446693242</v>
       </c>
       <c r="AB6" t="n">
-        <v>4345.355398163106</v>
+        <v>4494.269325434137</v>
       </c>
       <c r="AC6" t="n">
-        <v>3930.64077770686</v>
+        <v>4065.342568761148</v>
       </c>
       <c r="AD6" t="n">
-        <v>3175862.658230365</v>
+        <v>3284698.446693242</v>
       </c>
       <c r="AE6" t="n">
-        <v>4345355.398163105</v>
+        <v>4494269.325434137</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.028729272699171e-07</v>
+        <v>1.495691368463206e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.07877604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3930640.77770686</v>
+        <v>4065342.568761148</v>
       </c>
     </row>
     <row r="7">
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3005.732981704975</v>
+        <v>3126.576195244099</v>
       </c>
       <c r="AB7" t="n">
-        <v>4112.576469149444</v>
+        <v>4277.919485140005</v>
       </c>
       <c r="AC7" t="n">
-        <v>3720.077942970992</v>
+        <v>3869.640853575788</v>
       </c>
       <c r="AD7" t="n">
-        <v>3005732.981704975</v>
+        <v>3126576.195244099</v>
       </c>
       <c r="AE7" t="n">
-        <v>4112576.469149444</v>
+        <v>4277919.485140005</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.229188695402831e-07</v>
+        <v>1.533035438499857e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.61328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>3720077.942970992</v>
+        <v>3869640.853575788</v>
       </c>
     </row>
     <row r="8">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2882.95241334685</v>
+        <v>2991.702860955155</v>
       </c>
       <c r="AB8" t="n">
-        <v>3944.582678825463</v>
+        <v>4093.379838974296</v>
       </c>
       <c r="AC8" t="n">
-        <v>3568.117244214773</v>
+        <v>3702.713412237122</v>
       </c>
       <c r="AD8" t="n">
-        <v>2882952.41334685</v>
+        <v>2991702.860955155</v>
       </c>
       <c r="AE8" t="n">
-        <v>3944582.678825463</v>
+        <v>4093379.838974296</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.373180675091375e-07</v>
+        <v>1.559860052188155e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.29264322916667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3568117.244214773</v>
+        <v>3702713.412237122</v>
       </c>
     </row>
     <row r="9">
@@ -13690,28 +13690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2781.524677933747</v>
+        <v>2890.275125542053</v>
       </c>
       <c r="AB9" t="n">
-        <v>3805.804776557368</v>
+        <v>3954.601936706202</v>
       </c>
       <c r="AC9" t="n">
-        <v>3442.58411016314</v>
+        <v>3577.18027818549</v>
       </c>
       <c r="AD9" t="n">
-        <v>2781524.677933747</v>
+        <v>2890275.125542053</v>
       </c>
       <c r="AE9" t="n">
-        <v>3805804.776557368</v>
+        <v>3954601.936706202</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.48329218897085e-07</v>
+        <v>1.580372992067441e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.056640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>3442584.110163141</v>
+        <v>3577180.27818549</v>
       </c>
     </row>
     <row r="10">
@@ -13796,28 +13796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2678.813228560442</v>
+        <v>2799.571101244994</v>
       </c>
       <c r="AB10" t="n">
-        <v>3665.270440215461</v>
+        <v>3830.496689083825</v>
       </c>
       <c r="AC10" t="n">
-        <v>3315.462173640531</v>
+        <v>3464.919461213388</v>
       </c>
       <c r="AD10" t="n">
-        <v>2678813.228560442</v>
+        <v>2799571.101244994</v>
       </c>
       <c r="AE10" t="n">
-        <v>3665270.440215461</v>
+        <v>3830496.689083825</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.570816725644279e-07</v>
+        <v>1.596678149407387e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.87272135416667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3315462.173640531</v>
+        <v>3464919.461213388</v>
       </c>
     </row>
     <row r="11">
@@ -13902,28 +13902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2592.635680801051</v>
+        <v>2701.471379755376</v>
       </c>
       <c r="AB11" t="n">
-        <v>3547.358517485972</v>
+        <v>3696.272322287454</v>
       </c>
       <c r="AC11" t="n">
-        <v>3208.803599325925</v>
+        <v>3343.505279598987</v>
       </c>
       <c r="AD11" t="n">
-        <v>2592635.680801051</v>
+        <v>2701471.379755376</v>
       </c>
       <c r="AE11" t="n">
-        <v>3547358.517485972</v>
+        <v>3696272.322287454</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.639518781312671e-07</v>
+        <v>1.609476821297882e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.7294921875</v>
       </c>
       <c r="AH11" t="n">
-        <v>3208803.599325925</v>
+        <v>3343505.279598987</v>
       </c>
     </row>
     <row r="12">
@@ -14008,28 +14008,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2526.276804262046</v>
+        <v>2635.112503216371</v>
       </c>
       <c r="AB12" t="n">
-        <v>3456.563375058282</v>
+        <v>3605.477179859765</v>
       </c>
       <c r="AC12" t="n">
-        <v>3126.673817859756</v>
+        <v>3261.375498132817</v>
       </c>
       <c r="AD12" t="n">
-        <v>2526276.804262046</v>
+        <v>2635112.503216371</v>
       </c>
       <c r="AE12" t="n">
-        <v>3456563.375058283</v>
+        <v>3605477.179859765</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.690339480026275e-07</v>
+        <v>1.618944332011399e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.626953125</v>
       </c>
       <c r="AH12" t="n">
-        <v>3126673.817859756</v>
+        <v>3261375.498132817</v>
       </c>
     </row>
     <row r="13">
@@ -14114,28 +14114,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2517.465181937027</v>
+        <v>2626.300880891352</v>
       </c>
       <c r="AB13" t="n">
-        <v>3444.50692465185</v>
+        <v>3593.420729453333</v>
       </c>
       <c r="AC13" t="n">
-        <v>3115.768018158779</v>
+        <v>3250.46969843184</v>
       </c>
       <c r="AD13" t="n">
-        <v>2517465.181937027</v>
+        <v>2626300.880891352</v>
       </c>
       <c r="AE13" t="n">
-        <v>3444506.92465185</v>
+        <v>3593420.729453333</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.699750720528793e-07</v>
+        <v>1.620697574736125e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.607421875</v>
       </c>
       <c r="AH13" t="n">
-        <v>3115768.018158779</v>
+        <v>3250469.69843184</v>
       </c>
     </row>
     <row r="14">
@@ -14220,28 +14220,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2529.189901813759</v>
+        <v>2638.025600768085</v>
       </c>
       <c r="AB14" t="n">
-        <v>3460.549203645331</v>
+        <v>3609.463008446813</v>
       </c>
       <c r="AC14" t="n">
-        <v>3130.279244560601</v>
+        <v>3264.980924833662</v>
       </c>
       <c r="AD14" t="n">
-        <v>2529189.901813759</v>
+        <v>2638025.600768085</v>
       </c>
       <c r="AE14" t="n">
-        <v>3460549.203645331</v>
+        <v>3609463.008446813</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.699750720528793e-07</v>
+        <v>1.620697574736125e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.607421875</v>
       </c>
       <c r="AH14" t="n">
-        <v>3130279.244560601</v>
+        <v>3264980.924833662</v>
       </c>
     </row>
   </sheetData>
@@ -14517,28 +14517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4464.433790924205</v>
+        <v>4620.035218917159</v>
       </c>
       <c r="AB2" t="n">
-        <v>6108.43526966118</v>
+        <v>6321.336008091674</v>
       </c>
       <c r="AC2" t="n">
-        <v>5525.454780767232</v>
+        <v>5718.036571529975</v>
       </c>
       <c r="AD2" t="n">
-        <v>4464433.790924205</v>
+        <v>4620035.218917159</v>
       </c>
       <c r="AE2" t="n">
-        <v>6108435.26966118</v>
+        <v>6321336.008091673</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.215819555606216e-07</v>
+        <v>1.24595938581484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.66015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5525454.780767232</v>
+        <v>5718036.571529975</v>
       </c>
     </row>
     <row r="3">
@@ -14623,28 +14623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2815.928395709044</v>
+        <v>2938.168373234672</v>
       </c>
       <c r="AB3" t="n">
-        <v>3852.877461002439</v>
+        <v>4020.131591100214</v>
       </c>
       <c r="AC3" t="n">
-        <v>3485.164243671701</v>
+        <v>3636.455874335583</v>
       </c>
       <c r="AD3" t="n">
-        <v>2815928.395709044</v>
+        <v>2938168.373234672</v>
       </c>
       <c r="AE3" t="n">
-        <v>3852877.461002439</v>
+        <v>4020131.591100214</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.063765909975631e-07</v>
+        <v>1.616379743759792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.55013020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3485164.243671701</v>
+        <v>3636455.874335583</v>
       </c>
     </row>
     <row r="4">
@@ -14729,28 +14729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2391.620555880428</v>
+        <v>2502.740049916947</v>
       </c>
       <c r="AB4" t="n">
-        <v>3272.320755408132</v>
+        <v>3424.359349394999</v>
       </c>
       <c r="AC4" t="n">
-        <v>2960.015055242882</v>
+        <v>3097.543299207144</v>
       </c>
       <c r="AD4" t="n">
-        <v>2391620.555880428</v>
+        <v>2502740.049916947</v>
       </c>
       <c r="AE4" t="n">
-        <v>3272320.755408132</v>
+        <v>3424359.349394999</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.725564879859994e-07</v>
+        <v>1.749037172224927e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.99088541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2960015.055242882</v>
+        <v>3097543.299207144</v>
       </c>
     </row>
     <row r="5">
@@ -14835,28 +14835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2163.223923550916</v>
+        <v>2263.223023606879</v>
       </c>
       <c r="AB5" t="n">
-        <v>2959.818406906426</v>
+        <v>3096.641587252109</v>
       </c>
       <c r="AC5" t="n">
-        <v>2677.337492282501</v>
+        <v>2801.102460328415</v>
       </c>
       <c r="AD5" t="n">
-        <v>2163223.923550916</v>
+        <v>2263223.02360688</v>
       </c>
       <c r="AE5" t="n">
-        <v>2959818.406906426</v>
+        <v>3096641.587252109</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.07886371455211e-07</v>
+        <v>1.819855830190161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.25358072916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2677337.492282501</v>
+        <v>2801102.460328416</v>
       </c>
     </row>
     <row r="6">
@@ -14941,28 +14941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2021.481899211672</v>
+        <v>2132.516052393619</v>
       </c>
       <c r="AB6" t="n">
-        <v>2765.880715988689</v>
+        <v>2917.80254285335</v>
       </c>
       <c r="AC6" t="n">
-        <v>2501.908942392694</v>
+        <v>2639.331563325015</v>
       </c>
       <c r="AD6" t="n">
-        <v>2021481.899211672</v>
+        <v>2132516.052393619</v>
       </c>
       <c r="AE6" t="n">
-        <v>2765880.715988689</v>
+        <v>2917802.54285335</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.245840685415241e-07</v>
+        <v>1.853326319833671e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.92317708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2501908.942392694</v>
+        <v>2639331.563325015</v>
       </c>
     </row>
     <row r="7">
@@ -15047,28 +15047,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2021.565792490733</v>
+        <v>2132.59994567268</v>
       </c>
       <c r="AB7" t="n">
-        <v>2765.99550247421</v>
+        <v>2917.917329338871</v>
       </c>
       <c r="AC7" t="n">
-        <v>2502.012773817141</v>
+        <v>2639.435394749462</v>
       </c>
       <c r="AD7" t="n">
-        <v>2021565.792490733</v>
+        <v>2132599.94567268</v>
       </c>
       <c r="AE7" t="n">
-        <v>2765995.50247421</v>
+        <v>2917917.329338871</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.257040360290207e-07</v>
+        <v>1.855571291700004e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.90201822916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2502012.773817141</v>
+        <v>2639435.394749462</v>
       </c>
     </row>
   </sheetData>
@@ -15344,28 +15344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3172.472407575977</v>
+        <v>3300.215395658443</v>
       </c>
       <c r="AB2" t="n">
-        <v>4340.716707650469</v>
+        <v>4515.5002995678</v>
       </c>
       <c r="AC2" t="n">
-        <v>3926.444797306307</v>
+        <v>4084.547288521353</v>
       </c>
       <c r="AD2" t="n">
-        <v>3172472.407575978</v>
+        <v>3300215.395658443</v>
       </c>
       <c r="AE2" t="n">
-        <v>4340716.70765047</v>
+        <v>4515500.2995678</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.280862147040754e-07</v>
+        <v>1.523201894156144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.70930989583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3926444.797306308</v>
+        <v>4084547.288521353</v>
       </c>
     </row>
     <row r="3">
@@ -15450,28 +15450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2158.06085402469</v>
+        <v>2264.342751892821</v>
       </c>
       <c r="AB3" t="n">
-        <v>2952.754067402092</v>
+        <v>3098.17364889186</v>
       </c>
       <c r="AC3" t="n">
-        <v>2670.947363425597</v>
+        <v>2802.48830415553</v>
       </c>
       <c r="AD3" t="n">
-        <v>2158060.85402469</v>
+        <v>2264342.751892821</v>
       </c>
       <c r="AE3" t="n">
-        <v>2952754.067402092</v>
+        <v>3098173.64889186</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.897181726369248e-07</v>
+        <v>1.861346058277624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2670947.363425598</v>
+        <v>2802488.30415553</v>
       </c>
     </row>
     <row r="4">
@@ -15556,28 +15556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1849.987964200724</v>
+        <v>1945.709953916552</v>
       </c>
       <c r="AB4" t="n">
-        <v>2531.235148328263</v>
+        <v>2662.206197613604</v>
       </c>
       <c r="AC4" t="n">
-        <v>2289.657618382656</v>
+        <v>2408.128974543226</v>
       </c>
       <c r="AD4" t="n">
-        <v>1849987.964200724</v>
+        <v>1945709.953916552</v>
       </c>
       <c r="AE4" t="n">
-        <v>2531235.148328263</v>
+        <v>2662206.197613604</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.437015496630538e-07</v>
+        <v>1.974282659024234e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.291015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2289657.618382656</v>
+        <v>2408128.974543226</v>
       </c>
     </row>
     <row r="5">
@@ -15662,28 +15662,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1828.575739042632</v>
+        <v>1924.29772875846</v>
       </c>
       <c r="AB5" t="n">
-        <v>2501.937997226256</v>
+        <v>2632.909046511597</v>
       </c>
       <c r="AC5" t="n">
-        <v>2263.156546263016</v>
+        <v>2381.627902423586</v>
       </c>
       <c r="AD5" t="n">
-        <v>1828575.739042632</v>
+        <v>1924297.72875846</v>
       </c>
       <c r="AE5" t="n">
-        <v>2501937.997226256</v>
+        <v>2632909.046511597</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.484741468461101e-07</v>
+        <v>1.984267230799474e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.1982421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2263156.546263015</v>
+        <v>2381627.902423586</v>
       </c>
     </row>
   </sheetData>
@@ -28668,28 +28668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2393.056733363025</v>
+        <v>2516.07067408861</v>
       </c>
       <c r="AB2" t="n">
-        <v>3274.2857967995</v>
+        <v>3442.598897492302</v>
       </c>
       <c r="AC2" t="n">
-        <v>2961.792555841811</v>
+        <v>3114.042090433406</v>
       </c>
       <c r="AD2" t="n">
-        <v>2393056.733363025</v>
+        <v>2516070.67408861</v>
       </c>
       <c r="AE2" t="n">
-        <v>3274285.7967995</v>
+        <v>3442598.897492302</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.173530840053708e-07</v>
+        <v>1.776807717675344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.84733072916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2961792.555841811</v>
+        <v>3114042.090433406</v>
       </c>
     </row>
     <row r="3">
@@ -28774,28 +28774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1703.349329532084</v>
+        <v>1805.917840706453</v>
       </c>
       <c r="AB3" t="n">
-        <v>2330.597699134645</v>
+        <v>2470.93646112677</v>
       </c>
       <c r="AC3" t="n">
-        <v>2108.168725743648</v>
+        <v>2235.113753257935</v>
       </c>
       <c r="AD3" t="n">
-        <v>1703349.329532084</v>
+        <v>1805917.840706453</v>
       </c>
       <c r="AE3" t="n">
-        <v>2330597.699134645</v>
+        <v>2470936.46112677</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.549317104943286e-07</v>
+        <v>2.075883808677342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.69954427083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2108168.725743648</v>
+        <v>2235113.753257934</v>
       </c>
     </row>
     <row r="4">
@@ -28880,28 +28880,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1678.303862748472</v>
+        <v>1780.87237392284</v>
       </c>
       <c r="AB4" t="n">
-        <v>2296.329386553294</v>
+        <v>2436.668148545418</v>
       </c>
       <c r="AC4" t="n">
-        <v>2077.170932819182</v>
+        <v>2204.115960333469</v>
       </c>
       <c r="AD4" t="n">
-        <v>1678303.862748472</v>
+        <v>1780872.37392284</v>
       </c>
       <c r="AE4" t="n">
-        <v>2296329.386553294</v>
+        <v>2436668.148545418</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.617338435424271e-07</v>
+        <v>2.090670664851285e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2077170.932819183</v>
+        <v>2204115.960333468</v>
       </c>
     </row>
   </sheetData>
@@ -29177,28 +29177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1413.49506579837</v>
+        <v>1508.533587862755</v>
       </c>
       <c r="AB2" t="n">
-        <v>1934.006308026555</v>
+        <v>2064.042206718727</v>
       </c>
       <c r="AC2" t="n">
-        <v>1749.427460383402</v>
+        <v>1867.052915410923</v>
       </c>
       <c r="AD2" t="n">
-        <v>1413495.06579837</v>
+        <v>1508533.587862755</v>
       </c>
       <c r="AE2" t="n">
-        <v>1934006.308026555</v>
+        <v>2064042.206718727</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.511011114961382e-07</v>
+        <v>2.262219638730323e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.14973958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1749427.460383402</v>
+        <v>1867052.915410923</v>
       </c>
     </row>
     <row r="3">
@@ -29283,28 +29283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1433.287412561813</v>
+        <v>1528.325934626198</v>
       </c>
       <c r="AB3" t="n">
-        <v>1961.087070045012</v>
+        <v>2091.122968737183</v>
       </c>
       <c r="AC3" t="n">
-        <v>1773.923672482905</v>
+        <v>1891.549127510426</v>
       </c>
       <c r="AD3" t="n">
-        <v>1433287.412561813</v>
+        <v>1528325.934626198</v>
       </c>
       <c r="AE3" t="n">
-        <v>1961087.070045012</v>
+        <v>2091122.968737183</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.514543742588582e-07</v>
+        <v>2.263059883736661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.14322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1773923.672482905</v>
+        <v>1891549.127510426</v>
       </c>
     </row>
   </sheetData>
@@ -29580,28 +29580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6043.318526275402</v>
+        <v>6216.082119446684</v>
       </c>
       <c r="AB2" t="n">
-        <v>8268.735020047299</v>
+        <v>8505.117790016073</v>
       </c>
       <c r="AC2" t="n">
-        <v>7479.578554976159</v>
+        <v>7693.401285144409</v>
       </c>
       <c r="AD2" t="n">
-        <v>6043318.526275402</v>
+        <v>6216082.119446685</v>
       </c>
       <c r="AE2" t="n">
-        <v>8268735.020047299</v>
+        <v>8505117.790016074</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337433363526213e-07</v>
+        <v>1.03577068024624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.029296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>7479578.55497616</v>
+        <v>7693401.285144408</v>
       </c>
     </row>
     <row r="3">
@@ -29686,28 +29686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3471.741882094295</v>
+        <v>3598.497701406984</v>
       </c>
       <c r="AB3" t="n">
-        <v>4750.190405523861</v>
+        <v>4923.623309579571</v>
       </c>
       <c r="AC3" t="n">
-        <v>4296.83890015459</v>
+        <v>4453.719611261828</v>
       </c>
       <c r="AD3" t="n">
-        <v>3471741.882094295</v>
+        <v>3598497.701406984</v>
       </c>
       <c r="AE3" t="n">
-        <v>4750190.405523861</v>
+        <v>4923623.309579572</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.374914844916569e-07</v>
+        <v>1.431159893794113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.7333984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>4296838.900154591</v>
+        <v>4453719.611261828</v>
       </c>
     </row>
     <row r="4">
@@ -29792,28 +29792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2912.675469770384</v>
+        <v>3027.90803278192</v>
       </c>
       <c r="AB4" t="n">
-        <v>3985.251075912848</v>
+        <v>4142.917352327131</v>
       </c>
       <c r="AC4" t="n">
-        <v>3604.90430656259</v>
+        <v>3747.523134841896</v>
       </c>
       <c r="AD4" t="n">
-        <v>2912675.469770384</v>
+        <v>3027908.03278192</v>
       </c>
       <c r="AE4" t="n">
-        <v>3985251.075912848</v>
+        <v>4142917.352327131</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.121367702767654e-07</v>
+        <v>1.57601490774737e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.736328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3604904.30656259</v>
+        <v>3747523.134841896</v>
       </c>
     </row>
     <row r="5">
@@ -29898,28 +29898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2641.048316658148</v>
+        <v>2756.195538815112</v>
       </c>
       <c r="AB5" t="n">
-        <v>3613.598821680411</v>
+        <v>3771.148330972496</v>
       </c>
       <c r="AC5" t="n">
-        <v>3268.722021856897</v>
+        <v>3411.235227104264</v>
       </c>
       <c r="AD5" t="n">
-        <v>2641048.316658148</v>
+        <v>2756195.538815112</v>
       </c>
       <c r="AE5" t="n">
-        <v>3613598.821680411</v>
+        <v>3771148.330972496</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.513304691454633e-07</v>
+        <v>1.652073345152905e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>3268722.021856897</v>
+        <v>3411235.227104264</v>
       </c>
     </row>
     <row r="6">
@@ -30004,28 +30004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2463.273901586847</v>
+        <v>2566.897956951208</v>
       </c>
       <c r="AB6" t="n">
-        <v>3370.360024126172</v>
+        <v>3512.143028246377</v>
       </c>
       <c r="AC6" t="n">
-        <v>3048.697593753446</v>
+        <v>3176.94902695411</v>
       </c>
       <c r="AD6" t="n">
-        <v>2463273.901586847</v>
+        <v>2566897.956951208</v>
       </c>
       <c r="AE6" t="n">
-        <v>3370360.024126172</v>
+        <v>3512143.028246377</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.76048103356627e-07</v>
+        <v>1.700039847134788e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.2958984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>3048697.593753446</v>
+        <v>3176949.02695411</v>
       </c>
     </row>
     <row r="7">
@@ -30110,28 +30110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2303.962662564385</v>
+        <v>2419.024543866779</v>
       </c>
       <c r="AB7" t="n">
-        <v>3152.383358579796</v>
+        <v>3309.816100749684</v>
       </c>
       <c r="AC7" t="n">
-        <v>2851.524315234653</v>
+        <v>2993.931897450081</v>
       </c>
       <c r="AD7" t="n">
-        <v>2303962.662564386</v>
+        <v>2419024.543866779</v>
       </c>
       <c r="AE7" t="n">
-        <v>3152383.358579796</v>
+        <v>3309816.100749684</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.929860837722454e-07</v>
+        <v>1.732909322596477e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.94921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2851524.315234653</v>
+        <v>2993931.897450081</v>
       </c>
     </row>
     <row r="8">
@@ -30216,28 +30216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2208.524894855581</v>
+        <v>2312.234201565963</v>
       </c>
       <c r="AB8" t="n">
-        <v>3021.801194383446</v>
+        <v>3163.700843156301</v>
       </c>
       <c r="AC8" t="n">
-        <v>2733.404729515989</v>
+        <v>2861.761674967365</v>
       </c>
       <c r="AD8" t="n">
-        <v>2208524.894855581</v>
+        <v>2312234.201565963</v>
       </c>
       <c r="AE8" t="n">
-        <v>3021801.194383446</v>
+        <v>3163700.843156301</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.027352701742582e-07</v>
+        <v>1.7518283811471e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.75390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2733404.729515989</v>
+        <v>2861761.674967365</v>
       </c>
     </row>
     <row r="9">
@@ -30322,28 +30322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2205.349404735392</v>
+        <v>2309.058711445774</v>
       </c>
       <c r="AB9" t="n">
-        <v>3017.456348708266</v>
+        <v>3159.35599748112</v>
       </c>
       <c r="AC9" t="n">
-        <v>2729.474549814019</v>
+        <v>2857.831495265395</v>
       </c>
       <c r="AD9" t="n">
-        <v>2205349.404735391</v>
+        <v>2309058.711445774</v>
       </c>
       <c r="AE9" t="n">
-        <v>3017456.348708265</v>
+        <v>3159355.99748112</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.037200364774917e-07</v>
+        <v>1.753739397162315e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.73600260416667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2729474.549814019</v>
+        <v>2857831.495265395</v>
       </c>
     </row>
   </sheetData>
@@ -30619,28 +30619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8826.943898974225</v>
+        <v>9042.536259447874</v>
       </c>
       <c r="AB2" t="n">
-        <v>12077.41405985836</v>
+        <v>12372.39703872209</v>
       </c>
       <c r="AC2" t="n">
-        <v>10924.76261274211</v>
+        <v>11191.59283011429</v>
       </c>
       <c r="AD2" t="n">
-        <v>8826943.898974225</v>
+        <v>9042536.259447875</v>
       </c>
       <c r="AE2" t="n">
-        <v>12077414.05985836</v>
+        <v>12372397.03872209</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.356639305567169e-07</v>
+        <v>8.174764138586466e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.4541015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>10924762.61274211</v>
+        <v>11191592.83011429</v>
       </c>
     </row>
     <row r="3">
@@ -30725,28 +30725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4426.895336993271</v>
+        <v>4570.566713242173</v>
       </c>
       <c r="AB3" t="n">
-        <v>6057.073500913168</v>
+        <v>6253.651016230709</v>
       </c>
       <c r="AC3" t="n">
-        <v>5478.994907141836</v>
+        <v>5656.811340295741</v>
       </c>
       <c r="AD3" t="n">
-        <v>4426895.336993271</v>
+        <v>4570566.713242173</v>
       </c>
       <c r="AE3" t="n">
-        <v>6057073.500913167</v>
+        <v>6253651.016230709</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.583829993906559e-07</v>
+        <v>1.235384743923173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.45865885416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5478994.907141836</v>
+        <v>5656811.34029574</v>
       </c>
     </row>
     <row r="4">
@@ -30831,28 +30831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3611.219614368656</v>
+        <v>3742.989411259454</v>
       </c>
       <c r="AB4" t="n">
-        <v>4941.029992144921</v>
+        <v>5121.323241524079</v>
       </c>
       <c r="AC4" t="n">
-        <v>4469.465024473572</v>
+        <v>4632.55133917514</v>
       </c>
       <c r="AD4" t="n">
-        <v>3611219.614368656</v>
+        <v>3742989.411259454</v>
       </c>
       <c r="AE4" t="n">
-        <v>4941029.992144922</v>
+        <v>5121323.241524079</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.428397404482639e-07</v>
+        <v>1.393858716550966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.791015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>4469465.024473572</v>
+        <v>4632551.33917514</v>
       </c>
     </row>
     <row r="5">
@@ -30937,28 +30937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3243.969502427181</v>
+        <v>3363.837809468426</v>
       </c>
       <c r="AB5" t="n">
-        <v>4438.542187055102</v>
+        <v>4602.551292965425</v>
       </c>
       <c r="AC5" t="n">
-        <v>4014.933950255481</v>
+        <v>4163.290257285942</v>
       </c>
       <c r="AD5" t="n">
-        <v>3243969.502427181</v>
+        <v>3363837.809468426</v>
       </c>
       <c r="AE5" t="n">
-        <v>4438542.187055102</v>
+        <v>4602551.292965425</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.886741291345835e-07</v>
+        <v>1.479862007314139e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4014933.950255481</v>
+        <v>4163290.257285942</v>
       </c>
     </row>
     <row r="6">
@@ -31043,28 +31043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3026.505351187455</v>
+        <v>3146.288317374129</v>
       </c>
       <c r="AB6" t="n">
-        <v>4140.99814148764</v>
+        <v>4304.890480275766</v>
       </c>
       <c r="AC6" t="n">
-        <v>3745.787090791297</v>
+        <v>3894.037774789821</v>
       </c>
       <c r="AD6" t="n">
-        <v>3026505.351187455</v>
+        <v>3146288.317374129</v>
       </c>
       <c r="AE6" t="n">
-        <v>4140998.14148764</v>
+        <v>4304890.480275766</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.163835318186527e-07</v>
+        <v>1.531855715187527e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.91927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3745787.090791298</v>
+        <v>3894037.774789821</v>
       </c>
     </row>
     <row r="7">
@@ -31149,28 +31149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2875.599051109947</v>
+        <v>2995.211425096029</v>
       </c>
       <c r="AB7" t="n">
-        <v>3934.521484205486</v>
+        <v>4098.180411218766</v>
       </c>
       <c r="AC7" t="n">
-        <v>3559.016275888351</v>
+        <v>3707.055824604223</v>
       </c>
       <c r="AD7" t="n">
-        <v>2875599.051109947</v>
+        <v>2995211.425096029</v>
       </c>
       <c r="AE7" t="n">
-        <v>3934521.484205486</v>
+        <v>4098180.411218765</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.356472603969613e-07</v>
+        <v>1.568002025798136e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.48307291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3559016.275888351</v>
+        <v>3707055.824604223</v>
       </c>
     </row>
     <row r="8">
@@ -31255,28 +31255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2759.089789172</v>
+        <v>2866.8860141631</v>
       </c>
       <c r="AB8" t="n">
-        <v>3775.108371996105</v>
+        <v>3922.599922662748</v>
       </c>
       <c r="AC8" t="n">
-        <v>3414.817327370532</v>
+        <v>3548.232491447236</v>
       </c>
       <c r="AD8" t="n">
-        <v>2759089.789172</v>
+        <v>2866886.0141631</v>
       </c>
       <c r="AE8" t="n">
-        <v>3775108.371996105</v>
+        <v>3922599.922662748</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.491223808803099e-07</v>
+        <v>1.593286637161222e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.19010416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3414817.327370532</v>
+        <v>3548232.491447235</v>
       </c>
     </row>
     <row r="9">
@@ -31361,28 +31361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2636.597315443539</v>
+        <v>2756.29494077564</v>
       </c>
       <c r="AB9" t="n">
-        <v>3607.508765454268</v>
+        <v>3771.284337120196</v>
       </c>
       <c r="AC9" t="n">
-        <v>3263.213192049529</v>
+        <v>3411.358253016113</v>
       </c>
       <c r="AD9" t="n">
-        <v>2636597.315443539</v>
+        <v>2756294.94077564</v>
       </c>
       <c r="AE9" t="n">
-        <v>3607508.765454268</v>
+        <v>3771284.337120196</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.607944922849006e-07</v>
+        <v>1.61518809629967e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3263213.192049528</v>
+        <v>3411358.253016113</v>
       </c>
     </row>
     <row r="10">
@@ -31467,28 +31467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2539.718665397312</v>
+        <v>2647.600141734431</v>
       </c>
       <c r="AB10" t="n">
-        <v>3474.955122476615</v>
+        <v>3622.563317795906</v>
       </c>
       <c r="AC10" t="n">
-        <v>3143.310282717461</v>
+        <v>3276.830959044877</v>
       </c>
       <c r="AD10" t="n">
-        <v>2539718.665397312</v>
+        <v>2647600.141734431</v>
       </c>
       <c r="AE10" t="n">
-        <v>3474955.122476615</v>
+        <v>3622563.317795906</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.695248520346759e-07</v>
+        <v>1.631569675492655e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.76204427083333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3143310.282717461</v>
+        <v>3276830.959044877</v>
       </c>
     </row>
     <row r="11">
@@ -31573,28 +31573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2467.825445968519</v>
+        <v>2575.706922305639</v>
       </c>
       <c r="AB11" t="n">
-        <v>3376.587647949141</v>
+        <v>3524.195843268433</v>
       </c>
       <c r="AC11" t="n">
-        <v>3054.330861899276</v>
+        <v>3187.851538226692</v>
       </c>
       <c r="AD11" t="n">
-        <v>2467825.445968519</v>
+        <v>2575706.922305639</v>
       </c>
       <c r="AE11" t="n">
-        <v>3376587.647949141</v>
+        <v>3524195.843268433</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.74649193626935e-07</v>
+        <v>1.641184950236364e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.65787760416667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3054330.861899276</v>
+        <v>3187851.538226692</v>
       </c>
     </row>
     <row r="12">
@@ -31679,28 +31679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2452.974492631402</v>
+        <v>2560.855968968522</v>
       </c>
       <c r="AB12" t="n">
-        <v>3356.267918415475</v>
+        <v>3503.876113734767</v>
       </c>
       <c r="AC12" t="n">
-        <v>3035.950418833384</v>
+        <v>3169.4710951608</v>
       </c>
       <c r="AD12" t="n">
-        <v>2452974.492631401</v>
+        <v>2560855.968968522</v>
       </c>
       <c r="AE12" t="n">
-        <v>3356267.918415475</v>
+        <v>3503876.113734767</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.762624122763501e-07</v>
+        <v>1.644211981174198e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.626953125</v>
       </c>
       <c r="AH12" t="n">
-        <v>3035950.418833384</v>
+        <v>3169471.0951608</v>
       </c>
     </row>
     <row r="13">
@@ -31785,28 +31785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2460.252461095488</v>
+        <v>2568.133937432608</v>
       </c>
       <c r="AB13" t="n">
-        <v>3366.225955949347</v>
+        <v>3513.834151268639</v>
       </c>
       <c r="AC13" t="n">
-        <v>3044.958075241217</v>
+        <v>3178.478751568632</v>
       </c>
       <c r="AD13" t="n">
-        <v>2460252.461095488</v>
+        <v>2568133.937432608</v>
       </c>
       <c r="AE13" t="n">
-        <v>3366225.955949347</v>
+        <v>3513834.151268639</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.767368883497075e-07</v>
+        <v>1.645102284391208e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.61555989583333</v>
       </c>
       <c r="AH13" t="n">
-        <v>3044958.075241216</v>
+        <v>3178478.751568632</v>
       </c>
     </row>
   </sheetData>
@@ -32082,28 +32082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1305.345847064913</v>
+        <v>1415.097480914571</v>
       </c>
       <c r="AB2" t="n">
-        <v>1786.031775748645</v>
+        <v>1936.198803082108</v>
       </c>
       <c r="AC2" t="n">
-        <v>1615.575409782535</v>
+        <v>1751.410706788038</v>
       </c>
       <c r="AD2" t="n">
-        <v>1305345.847064913</v>
+        <v>1415097.480914571</v>
       </c>
       <c r="AE2" t="n">
-        <v>1786031.775748645</v>
+        <v>1936198.803082108</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.05853567753574e-07</v>
+        <v>2.265471028148674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.90755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1615575.409782535</v>
+        <v>1751410.706788038</v>
       </c>
     </row>
   </sheetData>
@@ -32379,28 +32379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3580.186786952957</v>
+        <v>3720.682756764844</v>
       </c>
       <c r="AB2" t="n">
-        <v>4898.569508603037</v>
+        <v>5090.802292744411</v>
       </c>
       <c r="AC2" t="n">
-        <v>4431.056909887266</v>
+        <v>4604.943266910584</v>
       </c>
       <c r="AD2" t="n">
-        <v>3580186.786952958</v>
+        <v>3720682.756764844</v>
       </c>
       <c r="AE2" t="n">
-        <v>4898569.508603037</v>
+        <v>5090802.292744411</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.898826332836059e-07</v>
+        <v>1.42066389476462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.658203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4431056.909887265</v>
+        <v>4604943.266910585</v>
       </c>
     </row>
     <row r="3">
@@ -32485,28 +32485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2380.260075957367</v>
+        <v>2488.399545700797</v>
       </c>
       <c r="AB3" t="n">
-        <v>3256.776845588397</v>
+        <v>3404.738038868067</v>
       </c>
       <c r="AC3" t="n">
-        <v>2945.954634360328</v>
+        <v>3079.794619018219</v>
       </c>
       <c r="AD3" t="n">
-        <v>2380260.075957367</v>
+        <v>2488399.545700797</v>
       </c>
       <c r="AE3" t="n">
-        <v>3256776.845588397</v>
+        <v>3404738.038868067</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.59400832221041e-07</v>
+        <v>1.769749917686634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.79329427083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2945954.634360328</v>
+        <v>3079794.619018219</v>
       </c>
     </row>
     <row r="4">
@@ -32591,28 +32591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2027.479669228276</v>
+        <v>2135.363205916542</v>
       </c>
       <c r="AB4" t="n">
-        <v>2774.087129528345</v>
+        <v>2921.698143910961</v>
       </c>
       <c r="AC4" t="n">
-        <v>2509.332147341899</v>
+        <v>2642.855373685197</v>
       </c>
       <c r="AD4" t="n">
-        <v>2027479.669228276</v>
+        <v>2135363.205916542</v>
       </c>
       <c r="AE4" t="n">
-        <v>2774087.129528346</v>
+        <v>2921698.143910961</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.203312329488613e-07</v>
+        <v>1.895222884002007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.48307291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2509332.147341899</v>
+        <v>2642855.373685197</v>
       </c>
     </row>
     <row r="5">
@@ -32697,28 +32697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1893.811272784711</v>
+        <v>1991.051544207776</v>
       </c>
       <c r="AB5" t="n">
-        <v>2591.1961324808</v>
+        <v>2724.244561779845</v>
       </c>
       <c r="AC5" t="n">
-        <v>2343.896010363445</v>
+        <v>2464.246484304832</v>
       </c>
       <c r="AD5" t="n">
-        <v>1893811.272784711</v>
+        <v>1991051.544207776</v>
       </c>
       <c r="AE5" t="n">
-        <v>2591196.1324808</v>
+        <v>2724244.561779845</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.406065292459405e-07</v>
+        <v>1.936975466275047e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.08430989583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2343896.010363445</v>
+        <v>2464246.484304832</v>
       </c>
     </row>
     <row r="6">
@@ -32803,28 +32803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1901.922229005034</v>
+        <v>1999.1625004281</v>
       </c>
       <c r="AB6" t="n">
-        <v>2602.29390061158</v>
+        <v>2735.342329910625</v>
       </c>
       <c r="AC6" t="n">
-        <v>2353.934623079639</v>
+        <v>2474.285097021026</v>
       </c>
       <c r="AD6" t="n">
-        <v>1901922.229005034</v>
+        <v>1999162.5004281</v>
       </c>
       <c r="AE6" t="n">
-        <v>2602293.90061158</v>
+        <v>2735342.329910625</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.412336002654377e-07</v>
+        <v>1.938266783252563e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.0712890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2353934.623079639</v>
+        <v>2474285.097021026</v>
       </c>
     </row>
   </sheetData>
@@ -33100,28 +33100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4949.426193269459</v>
+        <v>5118.17512149192</v>
       </c>
       <c r="AB2" t="n">
-        <v>6772.023270904706</v>
+        <v>7002.912999175985</v>
       </c>
       <c r="AC2" t="n">
-        <v>6125.710874523661</v>
+        <v>6334.564811184488</v>
       </c>
       <c r="AD2" t="n">
-        <v>4949426.193269459</v>
+        <v>5118175.121491919</v>
       </c>
       <c r="AE2" t="n">
-        <v>6772023.270904706</v>
+        <v>7002912.999175984</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.906540580074222e-07</v>
+        <v>1.170194435284358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.72786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6125710.874523661</v>
+        <v>6334564.811184487</v>
       </c>
     </row>
     <row r="3">
@@ -33206,28 +33206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3027.524369067842</v>
+        <v>3151.31340882978</v>
       </c>
       <c r="AB3" t="n">
-        <v>4142.39240670748</v>
+        <v>4311.766032096777</v>
       </c>
       <c r="AC3" t="n">
-        <v>3747.04828929542</v>
+        <v>3900.257133594931</v>
       </c>
       <c r="AD3" t="n">
-        <v>3027524.369067842</v>
+        <v>3151313.40882978</v>
       </c>
       <c r="AE3" t="n">
-        <v>4142392.40670748</v>
+        <v>4311766.032096777</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.822392924956899e-07</v>
+        <v>1.549760057904701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3747048.28929542</v>
+        <v>3900257.133594931</v>
       </c>
     </row>
     <row r="4">
@@ -33312,28 +33312,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2573.226403714682</v>
+        <v>2685.668884801826</v>
       </c>
       <c r="AB4" t="n">
-        <v>3520.80188829953</v>
+        <v>3674.650651535131</v>
       </c>
       <c r="AC4" t="n">
-        <v>3184.781497556576</v>
+        <v>3323.94715075706</v>
       </c>
       <c r="AD4" t="n">
-        <v>2573226.403714682</v>
+        <v>2685668.884801826</v>
       </c>
       <c r="AE4" t="n">
-        <v>3520801.88829953</v>
+        <v>3674650.651535131</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.516688154982662e-07</v>
+        <v>1.687312725766065e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.23014322916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3184781.497556576</v>
+        <v>3323947.15075706</v>
       </c>
     </row>
     <row r="5">
@@ -33418,28 +33418,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2328.772599292583</v>
+        <v>2430.039113905525</v>
       </c>
       <c r="AB5" t="n">
-        <v>3186.329408548478</v>
+        <v>3324.886721405232</v>
       </c>
       <c r="AC5" t="n">
-        <v>2882.230601837903</v>
+        <v>3007.564199222013</v>
       </c>
       <c r="AD5" t="n">
-        <v>2328772.599292583</v>
+        <v>2430039.113905525</v>
       </c>
       <c r="AE5" t="n">
-        <v>3186329.408548478</v>
+        <v>3324886.721405232</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.875910469648164e-07</v>
+        <v>1.758481280007379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.45052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2882230.601837903</v>
+        <v>3007564.199222013</v>
       </c>
     </row>
     <row r="6">
@@ -33524,28 +33524,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2148.203387127747</v>
+        <v>2260.645778706341</v>
       </c>
       <c r="AB6" t="n">
-        <v>2939.266646312947</v>
+        <v>3093.115287079172</v>
       </c>
       <c r="AC6" t="n">
-        <v>2658.747162875487</v>
+        <v>2797.91270529479</v>
       </c>
       <c r="AD6" t="n">
-        <v>2148203.387127747</v>
+        <v>2260645.778706342</v>
       </c>
       <c r="AE6" t="n">
-        <v>2939266.646312947</v>
+        <v>3093115.287079172</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.103317313105875e-07</v>
+        <v>1.80353476252429e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.99153645833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2658747.162875487</v>
+        <v>2797912.70529479</v>
       </c>
     </row>
     <row r="7">
@@ -33630,28 +33630,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2080.723451466946</v>
+        <v>2193.165843045541</v>
       </c>
       <c r="AB7" t="n">
-        <v>2846.937621337185</v>
+        <v>3000.786262103405</v>
       </c>
       <c r="AC7" t="n">
-        <v>2575.229890458811</v>
+        <v>2714.395432878113</v>
       </c>
       <c r="AD7" t="n">
-        <v>2080723.451466946</v>
+        <v>2193165.843045541</v>
       </c>
       <c r="AE7" t="n">
-        <v>2846937.621337185</v>
+        <v>3000786.262103405</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.179790410905815e-07</v>
+        <v>1.818685491158295e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.84016927083333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2575229.890458811</v>
+        <v>2714395.432878113</v>
       </c>
     </row>
     <row r="8">
@@ -33736,28 +33736,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2083.947427463029</v>
+        <v>2196.389819041624</v>
       </c>
       <c r="AB8" t="n">
-        <v>2851.348807526809</v>
+        <v>3005.197448293028</v>
       </c>
       <c r="AC8" t="n">
-        <v>2579.220079229636</v>
+        <v>2718.385621648938</v>
       </c>
       <c r="AD8" t="n">
-        <v>2083947.427463029</v>
+        <v>2196389.819041624</v>
       </c>
       <c r="AE8" t="n">
-        <v>2851348.807526809</v>
+        <v>3005197.448293028</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.183815310790021e-07</v>
+        <v>1.819482897928506e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.83203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2579220.079229636</v>
+        <v>2718385.621648938</v>
       </c>
     </row>
   </sheetData>
